--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_6_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_6_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2124044.193161892</v>
+        <v>2118322.581194006</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836241</v>
+        <v>6654055.582836238</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095092</v>
+        <v>806345.8827095096</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>118.8995293365515</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>162.3333543119051</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -819,19 +819,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>37.83808333974875</v>
       </c>
       <c r="G4" t="n">
-        <v>155.9407888106548</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,16 +861,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>274.452171367011</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,10 +913,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>61.75656432199267</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>48.03644161695777</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>9.764863467406604</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,31 +1098,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>187.9849808141573</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481174</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1189,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>88.47998969135003</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229333</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,13 +1293,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1311,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>113.961583703975</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>25.31590541686258</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1432,7 +1432,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1530,22 +1530,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>127.7745999710427</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>173.626889274475</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>63.98015159916462</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>17.25588147840126</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1827,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,13 +1897,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>7.601081015447237</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>112.9416910403789</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2180,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247734</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,10 +2250,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -2295,19 +2295,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486465</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>147.0493409701223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2484,16 +2484,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>25.89658431854274</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2535,7 +2535,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>147.0633545968146</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2572,7 +2572,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873217</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -2715,19 +2715,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>147.0633545968145</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>160.4810072515573</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>101.2308747863659</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2964,13 +2964,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3049,7 +3049,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247747</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T33" t="n">
         <v>190.7165703189231</v>
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>49.96616404348484</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3328,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3365,7 +3365,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T36" t="n">
         <v>190.7165703189231</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>114.4740828099058</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3520,7 +3520,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -3562,7 +3562,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3602,7 +3602,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3672,13 +3672,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>27.32239466140643</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3714,16 +3714,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>130.5944218290442</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3839,7 +3839,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247747</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3906,19 +3906,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,19 +3948,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>143.6049131573511</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>15.42290135054944</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3997,7 +3997,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4140,19 +4140,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>153.8460252842336</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1448.576038264086</v>
+        <v>1372.955922978507</v>
       </c>
       <c r="C2" t="n">
-        <v>1079.613521323674</v>
+        <v>1372.955922978507</v>
       </c>
       <c r="D2" t="n">
-        <v>959.5129866402885</v>
+        <v>1014.690224371757</v>
       </c>
       <c r="E2" t="n">
-        <v>959.5129866402885</v>
+        <v>628.9019717735125</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>217.916066983905</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V2" t="n">
-        <v>2212.181128500977</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W2" t="n">
-        <v>2212.181128500977</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X2" t="n">
-        <v>1838.715370239897</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="Y2" t="n">
-        <v>1448.576038264086</v>
+        <v>1759.555763042629</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>257.1154545468208</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>257.1154545468208</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D4" t="n">
-        <v>257.1154545468208</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E4" t="n">
-        <v>257.1154545468208</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F4" t="n">
-        <v>257.1154545468208</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>484.4236418782191</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>257.1154545468208</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>257.1154545468208</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>257.1154545468208</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>257.1154545468208</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>257.1154545468208</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>257.1154545468208</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1363.553390680693</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C5" t="n">
-        <v>1363.553390680693</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D5" t="n">
-        <v>1363.553390680693</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2579.740033546703</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2579.740033546703</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2325.978248184794</v>
       </c>
       <c r="V5" t="n">
-        <v>1993.54646147304</v>
+        <v>1994.915360841223</v>
       </c>
       <c r="W5" t="n">
-        <v>1640.777806202926</v>
+        <v>1642.146705571109</v>
       </c>
       <c r="X5" t="n">
-        <v>1640.777806202926</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="Y5" t="n">
-        <v>1640.777806202926</v>
+        <v>1268.68094731003</v>
       </c>
     </row>
     <row r="6">
@@ -4655,16 +4655,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>102.4646400193117</v>
+        <v>63.80648027229032</v>
       </c>
       <c r="C7" t="n">
-        <v>102.4646400193117</v>
+        <v>63.80648027229032</v>
       </c>
       <c r="D7" t="n">
-        <v>102.4646400193117</v>
+        <v>63.80648027229032</v>
       </c>
       <c r="E7" t="n">
-        <v>102.4646400193117</v>
+        <v>63.80648027229032</v>
       </c>
       <c r="F7" t="n">
-        <v>102.4646400193117</v>
+        <v>63.80648027229032</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>63.80648027229032</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>63.80648027229032</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>63.80648027229032</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>323.2572191628418</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>323.2572191628418</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>323.2572191628418</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W7" t="n">
-        <v>323.2572191628418</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X7" t="n">
-        <v>323.2572191628418</v>
+        <v>245.45494510253</v>
       </c>
       <c r="Y7" t="n">
-        <v>102.4646400193117</v>
+        <v>245.45494510253</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1749.341643278937</v>
+        <v>1370.766673031379</v>
       </c>
       <c r="C8" t="n">
-        <v>1749.341643278937</v>
+        <v>1001.804156090968</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>643.5384574842171</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>257.7502048859729</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862885</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862885</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.181128500977</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V8" t="n">
-        <v>2122.807401540017</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="W8" t="n">
-        <v>2122.807401540017</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="X8" t="n">
-        <v>1749.341643278937</v>
+        <v>2147.505845071313</v>
       </c>
       <c r="Y8" t="n">
-        <v>1749.341643278937</v>
+        <v>1757.366513095501</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571346</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915165</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.81559303506</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>319.1723320447961</v>
+        <v>546.4805193761947</v>
       </c>
       <c r="C10" t="n">
-        <v>319.1723320447961</v>
+        <v>377.5443364482878</v>
       </c>
       <c r="D10" t="n">
-        <v>169.0556926324604</v>
+        <v>227.4276970359521</v>
       </c>
       <c r="E10" t="n">
-        <v>169.0556926324604</v>
+        <v>79.51460345355898</v>
       </c>
       <c r="F10" t="n">
-        <v>169.0556926324604</v>
+        <v>79.51460345355898</v>
       </c>
       <c r="G10" t="n">
-        <v>169.0556926324604</v>
+        <v>79.51460345355898</v>
       </c>
       <c r="H10" t="n">
-        <v>169.0556926324604</v>
+        <v>79.51460345355898</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>79.51460345355898</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658208</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.26178935949</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064341</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>500.8207968750359</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>500.8207968750359</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>500.8207968750359</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>500.8207968750359</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>500.8207968750359</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>500.8207968750359</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C11" t="n">
         <v>2005.253839749764</v>
@@ -5026,10 +5026,10 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551623</v>
       </c>
       <c r="G11" t="n">
         <v>435.1415336001585</v>
@@ -5038,55 +5038,55 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L11" t="n">
-        <v>1557.603359811481</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M11" t="n">
-        <v>2317.998088216516</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N11" t="n">
-        <v>3297.750360443163</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O11" t="n">
-        <v>3800.7228313225</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W11" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="12">
@@ -5111,22 +5111,22 @@
         <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H12" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J12" t="n">
         <v>189.2383039390115</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320239</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1004.489080189973</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C13" t="n">
-        <v>835.5528972620665</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D13" t="n">
-        <v>685.4362578497307</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E13" t="n">
-        <v>556.371005353728</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F13" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G13" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J13" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L13" t="n">
         <v>661.2306482927024</v>
@@ -5214,37 +5214,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S13" t="n">
-        <v>1764.65758193153</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T13" t="n">
-        <v>1764.65758193153</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U13" t="n">
-        <v>1475.554715057174</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V13" t="n">
-        <v>1475.554715057174</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W13" t="n">
-        <v>1186.137545020213</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X13" t="n">
-        <v>1186.137545020213</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y13" t="n">
-        <v>1186.137545020213</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
@@ -5269,55 +5269,55 @@
         <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J14" t="n">
-        <v>451.845814427773</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L14" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M14" t="n">
-        <v>2536.15366264131</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N14" t="n">
-        <v>3082.932479700092</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O14" t="n">
-        <v>3865.782086996752</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P14" t="n">
-        <v>4260.55645335393</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
         <v>3150.95552873011</v>
@@ -5333,43 +5333,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089893</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320238</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
         <v>2125.96131142685</v>
@@ -5378,7 +5378,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
         <v>2593.958107142068</v>
@@ -5387,7 +5387,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
         <v>2043.809373447819</v>
@@ -5396,7 +5396,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
         <v>1346.568408282342</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>706.4876447660638</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="C16" t="n">
-        <v>706.4876447660638</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="D16" t="n">
-        <v>556.371005353728</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E16" t="n">
-        <v>556.371005353728</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F16" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G16" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J16" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M16" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N16" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1938.913282793187</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.657581931531</v>
+        <v>1747.227398620013</v>
       </c>
       <c r="T16" t="n">
-        <v>1542.890966501056</v>
+        <v>1525.460783189539</v>
       </c>
       <c r="U16" t="n">
-        <v>1253.7880996267</v>
+        <v>1236.357916315183</v>
       </c>
       <c r="V16" t="n">
-        <v>999.1036114208131</v>
+        <v>981.6734281092956</v>
       </c>
       <c r="W16" t="n">
-        <v>999.1036114208131</v>
+        <v>692.256258072335</v>
       </c>
       <c r="X16" t="n">
-        <v>771.1140605227957</v>
+        <v>464.2667071743176</v>
       </c>
       <c r="Y16" t="n">
-        <v>771.1140605227957</v>
+        <v>243.4741280307875</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
         <v>1646.988141143014</v>
@@ -5512,49 +5512,49 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L17" t="n">
-        <v>1287.040180767972</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M17" t="n">
-        <v>2265.590483597801</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N17" t="n">
-        <v>2812.369300656583</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O17" t="n">
-        <v>3692.333950986038</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P17" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H18" t="n">
         <v>114.5683260468565</v>
@@ -5594,40 +5594,40 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5636,10 +5636,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>270.9417306852383</v>
+        <v>559.3002584566048</v>
       </c>
       <c r="C19" t="n">
-        <v>270.9417306852383</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="D19" t="n">
-        <v>270.9417306852383</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E19" t="n">
-        <v>270.9417306852383</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F19" t="n">
-        <v>270.9417306852383</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G19" t="n">
-        <v>103.2388940599573</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H19" t="n">
-        <v>103.2388940599573</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J19" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5688,37 +5688,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S19" t="n">
-        <v>1956.343466104704</v>
+        <v>1842.2609499023</v>
       </c>
       <c r="T19" t="n">
-        <v>1734.57685067423</v>
+        <v>1620.494334471826</v>
       </c>
       <c r="U19" t="n">
-        <v>1445.473983799873</v>
+        <v>1331.39146759747</v>
       </c>
       <c r="V19" t="n">
-        <v>1190.789495593986</v>
+        <v>1076.706979391583</v>
       </c>
       <c r="W19" t="n">
-        <v>901.3723255570255</v>
+        <v>787.2898093546221</v>
       </c>
       <c r="X19" t="n">
-        <v>673.3827746590082</v>
+        <v>559.3002584566048</v>
       </c>
       <c r="Y19" t="n">
-        <v>452.5901955154781</v>
+        <v>559.3002584566048</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
         <v>2005.253839749764</v>
@@ -5737,67 +5737,67 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
         <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M20" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N20" t="n">
-        <v>3070.887536710053</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O20" t="n">
-        <v>3573.86000758939</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
-        <v>4260.556453353931</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3154.542034367489</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C21" t="n">
-        <v>2980.089005086362</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D21" t="n">
-        <v>2831.154595425111</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E21" t="n">
-        <v>2671.917140419655</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F21" t="n">
-        <v>2525.38258244654</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G21" t="n">
-        <v>2389.019482279158</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H21" t="n">
-        <v>2298.517587917025</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I21" t="n">
-        <v>2279.510296318563</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J21" t="n">
-        <v>2373.18756580918</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>2611.451764789528</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>2978.149925102193</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M21" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O21" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>4620.410164773121</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
-        <v>4777.907369012237</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S21" t="n">
-        <v>4648.469482505717</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
-        <v>4455.826482183572</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>4227.758635317988</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W21" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>3530.517670152511</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>3322.757371387557</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>579.0900014994927</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C22" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D22" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E22" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F22" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J22" t="n">
         <v>140.68366689533</v>
@@ -5934,28 +5934,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T22" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>1163.957642384228</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V22" t="n">
-        <v>909.2731541783409</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W22" t="n">
-        <v>760.7384663297324</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X22" t="n">
-        <v>760.7384663297324</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y22" t="n">
-        <v>760.7384663297324</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="23">
@@ -5965,52 +5965,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E23" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001578</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>953.4728278125308</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L23" t="n">
-        <v>1404.50704106094</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M23" t="n">
-        <v>2383.057343890768</v>
+        <v>1923.729615463053</v>
       </c>
       <c r="N23" t="n">
-        <v>3362.809616117415</v>
+        <v>2602.177459903276</v>
       </c>
       <c r="O23" t="n">
-        <v>3865.782086996752</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P23" t="n">
-        <v>4260.55645335393</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R23" t="n">
         <v>4778.05172241972</v>
@@ -6022,19 +6022,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="24">
@@ -6044,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G24" t="n">
         <v>205.0702204089889</v>
@@ -6065,43 +6065,43 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K24" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6110,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>557.3941514382108</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C25" t="n">
-        <v>557.3941514382108</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D25" t="n">
-        <v>557.3941514382108</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E25" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F25" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G25" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
@@ -6174,25 +6174,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1840.354842883906</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1618.588227453432</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
-        <v>1329.485360579076</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V25" t="n">
-        <v>1074.800872373189</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W25" t="n">
-        <v>785.3837023362281</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X25" t="n">
-        <v>557.3941514382108</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y25" t="n">
-        <v>557.3941514382108</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749766</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551633</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001598</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>284.4401654074199</v>
       </c>
       <c r="K26" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972664</v>
       </c>
       <c r="L26" t="n">
-        <v>1586.925993846824</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M26" t="n">
-        <v>2120.457898518748</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N26" t="n">
-        <v>2667.236715577531</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O26" t="n">
-        <v>3547.201365906985</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P26" t="n">
-        <v>4260.556453353931</v>
+        <v>4470.748294107238</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4719.03465586292</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604876</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261305</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991191</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730111</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754299</v>
       </c>
     </row>
     <row r="27">
@@ -6299,28 +6299,28 @@
         <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P27" t="n">
         <v>2436.460902902952</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>877.1197344942216</v>
+        <v>244.1098774754799</v>
       </c>
       <c r="C28" t="n">
-        <v>708.1835515663147</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="D28" t="n">
-        <v>558.0669121539789</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="E28" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="F28" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6408,28 +6408,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1764.65758193153</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1475.554715057174</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V28" t="n">
-        <v>1220.870226851287</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="W28" t="n">
-        <v>1058.768199324461</v>
+        <v>874.540472347267</v>
       </c>
       <c r="X28" t="n">
-        <v>1058.768199324461</v>
+        <v>646.5509214492497</v>
       </c>
       <c r="Y28" t="n">
-        <v>1058.768199324461</v>
+        <v>425.7583423057196</v>
       </c>
     </row>
     <row r="29">
@@ -6457,34 +6457,34 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1557.603359811481</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M29" t="n">
-        <v>2091.135264483406</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N29" t="n">
-        <v>2920.758180993045</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O29" t="n">
-        <v>3800.7228313225</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6518,34 +6518,34 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
         <v>794.2006632320242</v>
@@ -6560,22 +6560,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6584,10 +6584,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1072.7993679208</v>
+        <v>709.4168978689405</v>
       </c>
       <c r="C31" t="n">
-        <v>903.8631849928929</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D31" t="n">
-        <v>801.6097761177758</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E31" t="n">
-        <v>653.6966825353827</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F31" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
@@ -6648,25 +6648,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T31" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U31" t="n">
-        <v>1764.65758193153</v>
+        <v>1883.949150983575</v>
       </c>
       <c r="V31" t="n">
-        <v>1764.65758193153</v>
+        <v>1629.264662777688</v>
       </c>
       <c r="W31" t="n">
-        <v>1475.240411894569</v>
+        <v>1339.847492740728</v>
       </c>
       <c r="X31" t="n">
-        <v>1475.240411894569</v>
+        <v>1111.85794184271</v>
       </c>
       <c r="Y31" t="n">
-        <v>1254.447832751039</v>
+        <v>891.0653626991802</v>
       </c>
     </row>
     <row r="32">
@@ -6688,46 +6688,46 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551622</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
-        <v>451.845814427773</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L32" t="n">
-        <v>1557.603359811481</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M32" t="n">
-        <v>2536.15366264131</v>
+        <v>2055.398642844494</v>
       </c>
       <c r="N32" t="n">
-        <v>3082.932479700092</v>
+        <v>2602.177459903276</v>
       </c>
       <c r="O32" t="n">
-        <v>3800.7228313225</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T32" t="n">
         <v>4461.783306331037</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C33" t="n">
-        <v>2980.089005086361</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D33" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E33" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F33" t="n">
-        <v>2525.382582446539</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>2389.019482279157</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H33" t="n">
-        <v>2298.517587917025</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
-        <v>2279.510296318563</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
-        <v>2373.18756580918</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>2611.451764789526</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>2978.149925102191</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M33" t="n">
-        <v>3425.426250324508</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>3898.949293878962</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O33" t="n">
-        <v>4309.910573297017</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>4620.41016477312</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>4777.907369012237</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S33" t="n">
-        <v>4648.469482505717</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
-        <v>4455.826482183572</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V33" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W33" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6834,43 +6834,43 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>482.6709267727791</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C34" t="n">
-        <v>313.7347438448722</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D34" t="n">
-        <v>313.7347438448722</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E34" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F34" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J34" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M34" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N34" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
         <v>1646.12566951853</v>
@@ -6885,25 +6885,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1764.657581931531</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T34" t="n">
-        <v>1764.657581931531</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>1475.554715057174</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V34" t="n">
-        <v>1220.870226851287</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W34" t="n">
-        <v>931.4530568143266</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X34" t="n">
-        <v>703.4635059163093</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y34" t="n">
-        <v>482.6709267727791</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="35">
@@ -6913,70 +6913,70 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.845814427773</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L35" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M35" t="n">
-        <v>2536.15366264131</v>
+        <v>2016.310259422546</v>
       </c>
       <c r="N35" t="n">
-        <v>3515.905934867957</v>
+        <v>2996.062531649192</v>
       </c>
       <c r="O35" t="n">
-        <v>4018.878405747294</v>
+        <v>3876.027181978647</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107235</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862917</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
         <v>3150.95552873011</v>
@@ -6992,40 +6992,40 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
         <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320246</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M36" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
         <v>1715.000032008795</v>
@@ -7049,7 +7049,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7058,10 +7058,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3445.378724331787</v>
+        <v>709.4168978689405</v>
       </c>
       <c r="C37" t="n">
-        <v>3276.44254140388</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D37" t="n">
-        <v>3276.44254140388</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E37" t="n">
-        <v>3276.44254140388</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F37" t="n">
-        <v>3276.44254140388</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G37" t="n">
-        <v>3160.812154727208</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
-        <v>3014.594967945065</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L37" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M37" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N37" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P37" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>4688.221265177248</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>4688.221265177248</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T37" t="n">
-        <v>4688.221265177248</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U37" t="n">
-        <v>4399.118398302891</v>
+        <v>1883.949150983575</v>
       </c>
       <c r="V37" t="n">
-        <v>4144.433910097005</v>
+        <v>1629.264662777688</v>
       </c>
       <c r="W37" t="n">
-        <v>3855.016740060044</v>
+        <v>1339.847492740728</v>
       </c>
       <c r="X37" t="n">
-        <v>3627.027189162027</v>
+        <v>1111.85794184271</v>
       </c>
       <c r="Y37" t="n">
-        <v>3627.027189162027</v>
+        <v>891.0653626991802</v>
       </c>
     </row>
     <row r="38">
@@ -7153,67 +7153,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H38" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1803.682313196074</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2337.214217867999</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N38" t="n">
-        <v>3189.3614801067</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O38" t="n">
-        <v>3692.333950986037</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P38" t="n">
-        <v>4405.689038432983</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V38" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X38" t="n">
         <v>3150.95552873011</v>
@@ -7229,37 +7229,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K39" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7295,10 +7295,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="40">
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>707.5107908505465</v>
+        <v>590.1253288168953</v>
       </c>
       <c r="C40" t="n">
-        <v>707.5107908505465</v>
+        <v>421.1891458889884</v>
       </c>
       <c r="D40" t="n">
-        <v>557.3941514382108</v>
+        <v>271.0725064766526</v>
       </c>
       <c r="E40" t="n">
-        <v>409.4810578558177</v>
+        <v>123.1594128942595</v>
       </c>
       <c r="F40" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G40" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
         <v>140.68366689533</v>
@@ -7362,22 +7362,22 @@
         <v>1764.65758193153</v>
       </c>
       <c r="T40" t="n">
-        <v>1542.890966501056</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U40" t="n">
-        <v>1410.977409097981</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="V40" t="n">
-        <v>1156.292920892094</v>
+        <v>1509.973093725643</v>
       </c>
       <c r="W40" t="n">
-        <v>1156.292920892094</v>
+        <v>1220.555923688682</v>
       </c>
       <c r="X40" t="n">
-        <v>928.3033699940767</v>
+        <v>992.5663727906651</v>
       </c>
       <c r="Y40" t="n">
-        <v>707.5107908505465</v>
+        <v>771.773793647135</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E41" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I41" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1390.197710791128</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M41" t="n">
-        <v>1999.417367126748</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N41" t="n">
-        <v>2979.169639353394</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O41" t="n">
         <v>3482.142110232731</v>
@@ -7444,19 +7444,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="42">
@@ -7466,43 +7466,43 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089899</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J42" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O42" t="n">
         <v>2125.96131142685</v>
@@ -7511,7 +7511,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
         <v>2593.958107142068</v>
@@ -7520,16 +7520,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V42" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W42" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
         <v>1346.568408282342</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>801.6097761177758</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C43" t="n">
-        <v>801.6097761177758</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D43" t="n">
-        <v>801.6097761177758</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E43" t="n">
-        <v>653.6966825353827</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F43" t="n">
-        <v>506.8067350374723</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G43" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H43" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839441</v>
@@ -7596,25 +7596,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S43" t="n">
-        <v>1866.513008862232</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T43" t="n">
-        <v>1866.513008862232</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U43" t="n">
-        <v>1721.457541026524</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V43" t="n">
-        <v>1721.457541026524</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W43" t="n">
-        <v>1432.040370989563</v>
+        <v>893.6944659454626</v>
       </c>
       <c r="X43" t="n">
-        <v>1204.050820091546</v>
+        <v>665.7049150474453</v>
       </c>
       <c r="Y43" t="n">
-        <v>983.2582409480156</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F44" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>284.44016540742</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>618.2595390972665</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1482.778354750621</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M44" t="n">
-        <v>2461.32865758045</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N44" t="n">
-        <v>3362.809616117413</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O44" t="n">
-        <v>3865.782086996751</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P44" t="n">
-        <v>4260.556453353929</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862917</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="45">
@@ -7703,37 +7703,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161929</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390115</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193587</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320238</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
@@ -7742,37 +7742,37 @@
         <v>1715.000032008794</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T45" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
       </c>
       <c r="W45" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>854.4007383484569</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C46" t="n">
-        <v>854.4007383484569</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D46" t="n">
-        <v>704.2840989361212</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E46" t="n">
-        <v>556.371005353728</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F46" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G46" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
         <v>140.68366689533</v>
@@ -7812,13 +7812,13 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L46" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M46" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N46" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O46" t="n">
         <v>1646.12566951853</v>
@@ -7833,25 +7833,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1956.343466104704</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T46" t="n">
-        <v>1956.343466104704</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U46" t="n">
-        <v>1800.943440565074</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V46" t="n">
-        <v>1546.258952359187</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W46" t="n">
-        <v>1256.841782322227</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X46" t="n">
-        <v>1256.841782322227</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y46" t="n">
-        <v>1036.049203178697</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>435.9238900028825</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8303,7 +8303,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270196</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.658803395179</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8695,19 +8695,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M11" t="n">
-        <v>229.1543674071819</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8935,22 +8935,22 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>282.7041781993156</v>
+        <v>344.7025836476844</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9163,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>219.9458872952496</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9400,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P20" t="n">
-        <v>294.8707872801648</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>169.5026663584964</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>132.9990175570116</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9877,25 +9877,25 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>198.7154374299952</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400264</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10111,19 +10111,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>285.7011105564206</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
@@ -10132,10 +10132,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10348,25 +10348,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>132.9990175570114</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>216.9877583263335</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>57.67224444723496</v>
+        <v>136.2499899971296</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10822,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>308.4529749292111</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11068,13 +11068,13 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>76.45227440777273</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>358.2849913921017</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>18.65936267552651</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>16.14213605696685</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>115.8518285827727</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004732</v>
+        <v>71.67627119164608</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>88.75133939439085</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>76.82733429106295</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24138,10 +24138,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,19 +24183,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>139.4736573664687</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24372,16 +24372,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983809</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>163.8724410128992</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24603,19 +24603,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>20.18346650181329</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
         <v>144.7550149143208</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>126.0419910850337</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>47.38459823184644</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,22 +24888,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>214.5414662356956</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>96.46779860308433</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>51.55172544912244</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
@@ -25368,7 +25368,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>214.5414662356956</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25560,13 +25560,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>118.0986533615248</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
@@ -25602,16 +25602,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>155.6174163765687</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,19 +25836,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>142.6069250482618</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>271.1000969860415</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26028,19 +26028,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983809</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>132.3658129213792</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>854698.4465300764</v>
+        <v>854698.4465300766</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>854698.4465300764</v>
+        <v>854698.4465300767</v>
       </c>
     </row>
     <row r="11">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049988</v>
+        <v>574729.2389049989</v>
       </c>
       <c r="C2" t="n">
         <v>574729.2389049988</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049988</v>
       </c>
       <c r="E2" t="n">
+        <v>555914.5016417765</v>
+      </c>
+      <c r="F2" t="n">
+        <v>555914.5016417766</v>
+      </c>
+      <c r="G2" t="n">
         <v>555914.5016417768</v>
       </c>
-      <c r="F2" t="n">
-        <v>555914.5016417769</v>
-      </c>
-      <c r="G2" t="n">
-        <v>555914.5016417766</v>
-      </c>
       <c r="H2" t="n">
-        <v>555914.5016417766</v>
+        <v>555914.5016417765</v>
       </c>
       <c r="I2" t="n">
         <v>555914.5016417765</v>
       </c>
       <c r="J2" t="n">
+        <v>555914.5016417766</v>
+      </c>
+      <c r="K2" t="n">
+        <v>555914.5016417763</v>
+      </c>
+      <c r="L2" t="n">
+        <v>555914.5016417766</v>
+      </c>
+      <c r="M2" t="n">
+        <v>555914.5016417763</v>
+      </c>
+      <c r="N2" t="n">
+        <v>555914.5016417764</v>
+      </c>
+      <c r="O2" t="n">
         <v>555914.5016417765</v>
       </c>
-      <c r="K2" t="n">
-        <v>555914.5016417764</v>
-      </c>
-      <c r="L2" t="n">
-        <v>555914.5016417765</v>
-      </c>
-      <c r="M2" t="n">
-        <v>555914.5016417764</v>
-      </c>
-      <c r="N2" t="n">
-        <v>555914.5016417765</v>
-      </c>
-      <c r="O2" t="n">
-        <v>555914.5016417764</v>
-      </c>
       <c r="P2" t="n">
-        <v>555914.5016417765</v>
+        <v>555914.5016417763</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,31 +26374,31 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934069</v>
+        <v>727377.4139934065</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925931</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389447</v>
+        <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26423,16 +26423,16 @@
         <v>192206.5963924297</v>
       </c>
       <c r="D4" t="n">
-        <v>192206.5963924298</v>
+        <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
         <v>21619.60799709187</v>
       </c>
       <c r="F4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="G4" t="n">
-        <v>21619.60799709188</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="H4" t="n">
         <v>21619.60799709187</v>
@@ -26441,25 +26441,25 @@
         <v>21619.60799709187</v>
       </c>
       <c r="J4" t="n">
+        <v>21619.60799709183</v>
+      </c>
+      <c r="K4" t="n">
         <v>21619.60799709188</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
+        <v>21619.60799709186</v>
+      </c>
+      <c r="M4" t="n">
         <v>21619.60799709187</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>21619.60799709187</v>
-      </c>
-      <c r="M4" t="n">
-        <v>21619.60799709185</v>
-      </c>
-      <c r="N4" t="n">
-        <v>21619.60799709186</v>
       </c>
       <c r="O4" t="n">
         <v>21619.60799709186</v>
       </c>
       <c r="P4" t="n">
-        <v>21619.60799709184</v>
+        <v>21619.60799709187</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
+        <v>96383.51825371364</v>
+      </c>
+      <c r="M5" t="n">
         <v>96383.51825371366</v>
       </c>
-      <c r="M5" t="n">
-        <v>96383.51825371364</v>
-      </c>
       <c r="N5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="O5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="P5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-290304.314765385</v>
+        <v>-290304.3147653848</v>
       </c>
       <c r="C6" t="n">
         <v>299663.5644491595</v>
       </c>
       <c r="D6" t="n">
-        <v>299663.5644491593</v>
+        <v>299663.5644491595</v>
       </c>
       <c r="E6" t="n">
-        <v>-289466.0386024357</v>
+        <v>-290137.9935046934</v>
       </c>
       <c r="F6" t="n">
-        <v>437911.3753909711</v>
+        <v>437239.4204887133</v>
       </c>
       <c r="G6" t="n">
-        <v>437911.3753909714</v>
+        <v>437239.4204887134</v>
       </c>
       <c r="H6" t="n">
-        <v>437911.3753909711</v>
+        <v>437239.420488713</v>
       </c>
       <c r="I6" t="n">
-        <v>437911.375390971</v>
+        <v>437239.4204887131</v>
       </c>
       <c r="J6" t="n">
-        <v>261488.1561983781</v>
+        <v>260816.2012961202</v>
       </c>
       <c r="K6" t="n">
-        <v>437911.3753909709</v>
+        <v>437239.4204887128</v>
       </c>
       <c r="L6" t="n">
-        <v>437911.3753909709</v>
+        <v>437239.4204887133</v>
       </c>
       <c r="M6" t="n">
-        <v>308269.0605520261</v>
+        <v>307597.105649768</v>
       </c>
       <c r="N6" t="n">
-        <v>437911.3753909712</v>
+        <v>437239.420488713</v>
       </c>
       <c r="O6" t="n">
-        <v>437911.375390971</v>
+        <v>437239.4204887131</v>
       </c>
       <c r="P6" t="n">
-        <v>437911.375390971</v>
+        <v>437239.4204887128</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170865</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26767,10 +26767,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="L3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="M3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="N3" t="n">
         <v>1089.776700593298</v>
@@ -26779,7 +26779,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,17 +26968,17 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762118</v>
+        <v>712.0330363762114</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
@@ -26989,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545561</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503748</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>235.7835122841315</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>251.4508157088899</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,19 +27539,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="G4" t="n">
-        <v>11.36901344839612</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,16 +27581,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>108.2816702964695</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27624,7 +27624,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>112.6591484869789</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27788,7 +27788,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>119.2733606420931</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>35.43509572113039</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,31 +27818,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>218.8910649275541</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27909,10 +27909,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>239.2722687787849</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,13 +28013,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>21.00403808836326</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853702</v>
+        <v>19.88405377167442</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,16 +28055,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491433</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -29292,7 +29292,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>-8.360776804491007e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338303</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633794</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727381</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473551</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141106</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188912</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890688</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396473</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.4465972703498</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372664</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619151</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078609</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.05628366564444</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813576</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302236</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175841</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383798</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678006</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315609</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31837,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31925,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31943,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837931</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32788,7 +32788,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
@@ -33274,7 +33274,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
         <v>557.708647897025</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
         <v>44.86703772844668</v>
@@ -33420,40 +33420,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U32" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H33" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33572,43 +33572,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K34" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q34" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
         <v>0.1071911508780295</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
         <v>44.86703772844668</v>
@@ -33657,40 +33657,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U35" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H36" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
         <v>593.9283018233476</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987476</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33809,43 +33809,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K37" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q37" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
         <v>0.1071911508780295</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
         <v>44.86703772844668</v>
@@ -34368,40 +34368,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34520,43 +34520,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35023,7 +35023,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.392610473064</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,13 +35333,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713951</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
         <v>148.370846145888</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873147</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,25 +35412,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>800.2926980400157</v>
       </c>
       <c r="M11" t="n">
-        <v>768.0754832374087</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R11" t="n">
         <v>125.3296184152072</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35582,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407864</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265653</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230594</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>790.757179087535</v>
+        <v>852.7555845359034</v>
       </c>
       <c r="P14" t="n">
-        <v>398.761986219372</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636243</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222484</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004598</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L17" t="n">
-        <v>675.5360016875818</v>
+        <v>800.2926980400157</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R17" t="n">
         <v>125.3296184152072</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N20" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P20" t="n">
-        <v>693.6327734995367</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
         <v>59.61319854222478</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>506.6939529138969</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>685.3008529699231</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
@@ -36597,25 +36597,25 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>654.3055518223274</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282456</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
         <v>59.61319854222478</v>
@@ -36831,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>838.0029459693321</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
         <v>888.8531821509645</v>
@@ -36852,10 +36852,10 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36922,7 +36922,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
         <v>415.1124034525806</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407864</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265653</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923323</v>
+        <v>588.5891319493436</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230594</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>725.0407592145528</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>398.761986219372</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636243</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152073</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
         <v>159.2338966127272</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K34" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L34" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M34" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N34" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P34" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407864</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265653</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923323</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230594</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248957</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882193</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
-        <v>456.4342306666069</v>
+        <v>535.0119762165015</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222484</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
         <v>451.7942679013293</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127261</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K37" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M37" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N37" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,28 +37542,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>860.7548103421226</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P38" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
         <v>125.3296184152072</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
         <v>661.3366991265652</v>
@@ -37788,13 +37788,13 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>615.3733902379995</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P41" t="n">
         <v>720.5606943908545</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687127</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554006</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427827</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230594</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>910.5868268050132</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.761986219372</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636243</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222484</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
         <v>159.2338966127272</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_6_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_6_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2118322.581194006</v>
+        <v>2121728.072318455</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836238</v>
+        <v>6654055.582836237</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095096</v>
+        <v>806345.8827095091</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>270.6226856612333</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>162.3333543119051</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -819,16 +819,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>37.83808333974875</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>32.49138749858555</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -904,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>36.07330930379418</v>
       </c>
       <c r="S5" t="n">
-        <v>61.75656432199267</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>9.764863467406604</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,28 +1098,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>20.97516701831633</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1141,10 +1141,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>333.7356466614543</v>
       </c>
       <c r="F8" t="n">
-        <v>187.9849808141573</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1302,7 +1302,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.31590541686258</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>30.60408762095441</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>173.626889274475</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>17.25588147840126</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1824,7 +1824,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>147.0633545968146</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1903,7 +1903,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>112.9416910403789</v>
+        <v>173.626889274475</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,10 +2134,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589016</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>173.626889274475</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>270.0697021486465</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492406</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>147.0633545968146</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2572,7 +2572,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873217</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292595</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="C28" t="n">
-        <v>147.0633545968145</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2952,16 +2952,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>71.67037196991727</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>181.4487096095777</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3128,7 +3128,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>163.689844124971</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>185.7793708384</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3280,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534539</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S36" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T36" t="n">
         <v>190.7165703189231</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>165.8745751493957</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>71.67037196991727</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534539</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873208</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S39" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T39" t="n">
         <v>190.7165703189231</v>
@@ -3663,19 +3663,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>27.32239466140643</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3714,10 +3714,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>36.41670903610082</v>
       </c>
     </row>
     <row r="41">
@@ -3839,7 +3839,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>7.601081015447828</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
@@ -3960,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>15.42290135054944</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1372.955922978507</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C2" t="n">
-        <v>1372.955922978507</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="D2" t="n">
-        <v>1014.690224371757</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="E2" t="n">
-        <v>628.9019717735125</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>217.916066983905</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,10 +4333,10 @@
         <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2443.387305656314</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2112.324418312743</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1759.555763042629</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1759.555763042629</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>1759.555763042629</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="C4" t="n">
-        <v>559.1928012785273</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="D4" t="n">
-        <v>409.0761618661916</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>261.1630682837985</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
         <v>222.942782082032</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>517.7458231623355</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1268.68094731003</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C5" t="n">
-        <v>1268.68094731003</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2660.711404852774</v>
       </c>
       <c r="S5" t="n">
-        <v>2579.740033546703</v>
+        <v>2660.711404852774</v>
       </c>
       <c r="T5" t="n">
-        <v>2579.740033546703</v>
+        <v>2660.711404852774</v>
       </c>
       <c r="U5" t="n">
-        <v>2325.978248184794</v>
+        <v>2406.949619490865</v>
       </c>
       <c r="V5" t="n">
-        <v>1994.915360841223</v>
+        <v>2075.886732147294</v>
       </c>
       <c r="W5" t="n">
-        <v>1642.146705571109</v>
+        <v>1723.11807687718</v>
       </c>
       <c r="X5" t="n">
-        <v>1268.68094731003</v>
+        <v>1349.6523186161</v>
       </c>
       <c r="Y5" t="n">
-        <v>1268.68094731003</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="6">
@@ -4655,16 +4655,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>63.80648027229032</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="C7" t="n">
-        <v>63.80648027229032</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="D7" t="n">
-        <v>63.80648027229032</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="E7" t="n">
-        <v>63.80648027229032</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="F7" t="n">
-        <v>63.80648027229032</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="G7" t="n">
-        <v>63.80648027229032</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H7" t="n">
-        <v>63.80648027229032</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
-        <v>63.80648027229032</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>677.5250276678174</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>463.2366044859801</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005474</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="W7" t="n">
-        <v>473.4444960005474</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="X7" t="n">
-        <v>245.45494510253</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="Y7" t="n">
-        <v>245.45494510253</v>
+        <v>235.9284171545819</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1370.766673031379</v>
+        <v>1139.146815977588</v>
       </c>
       <c r="C8" t="n">
-        <v>1001.804156090968</v>
+        <v>770.1842990371763</v>
       </c>
       <c r="D8" t="n">
-        <v>643.5384574842171</v>
+        <v>411.9186004304258</v>
       </c>
       <c r="E8" t="n">
-        <v>257.7502048859729</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
         <v>67.86638588177355</v>
@@ -4807,10 +4807,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>2520.971603332393</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X8" t="n">
-        <v>2147.505845071313</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="Y8" t="n">
-        <v>1757.366513095501</v>
+        <v>1525.74665604171</v>
       </c>
     </row>
     <row r="9">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>546.4805193761947</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>377.5443364482878</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>227.4276970359521</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>79.51460345355898</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>79.51460345355898</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>79.51460345355898</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>79.51460345355898</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>79.51460345355898</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>667.7988452409105</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551623</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1898.858917622688</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M11" t="n">
-        <v>2432.390822294612</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N11" t="n">
-        <v>2979.169639353394</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C12" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G12" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390115</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193586</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320239</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O12" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C13" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D13" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E13" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F13" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L13" t="n">
         <v>661.2306482927024</v>
@@ -5214,37 +5214,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1780.96276986786</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V13" t="n">
-        <v>1015.408799357142</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W13" t="n">
-        <v>725.9916293201816</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X13" t="n">
-        <v>498.0020784221642</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y13" t="n">
-        <v>277.2094992786341</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="14">
@@ -5257,67 +5257,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M14" t="n">
-        <v>2091.135264483405</v>
+        <v>2536.15366264131</v>
       </c>
       <c r="N14" t="n">
-        <v>2637.914081542187</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.142110232731</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
         <v>3150.95552873011</v>
@@ -5348,22 +5348,22 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>243.4741280307875</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C16" t="n">
-        <v>243.4741280307875</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D16" t="n">
-        <v>243.4741280307875</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E16" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5451,37 +5451,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1938.913282793187</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1747.227398620013</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1525.460783189539</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1236.357916315183</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V16" t="n">
-        <v>981.6734281092956</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W16" t="n">
-        <v>692.256258072335</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X16" t="n">
-        <v>464.2667071743176</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y16" t="n">
-        <v>243.4741280307875</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E17" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
         <v>451.8458144277728</v>
@@ -5521,25 +5521,25 @@
         <v>1106.569146563072</v>
       </c>
       <c r="L17" t="n">
-        <v>1898.858917622688</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>2432.390822294612</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N17" t="n">
-        <v>2979.169639353394</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
         <v>4667.761053946815</v>
@@ -5548,19 +5548,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="18">
@@ -5570,34 +5570,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G18" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193588</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L18" t="n">
         <v>794.200663232024</v>
@@ -5612,22 +5612,22 @@
         <v>2125.961311426849</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T18" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
         <v>1808.657265216076</v>
@@ -5636,10 +5636,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>559.3002584566048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C19" t="n">
-        <v>390.3640755286979</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>390.3640755286979</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
         <v>344.6708498442063</v>
@@ -5700,25 +5700,25 @@
         <v>1956.343466104703</v>
       </c>
       <c r="S19" t="n">
-        <v>1842.2609499023</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T19" t="n">
-        <v>1620.494334471826</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U19" t="n">
-        <v>1331.39146759747</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V19" t="n">
-        <v>1076.706979391583</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W19" t="n">
-        <v>787.2898093546221</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X19" t="n">
-        <v>559.3002584566048</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y19" t="n">
-        <v>559.3002584566048</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
         <v>2005.253839749764</v>
@@ -5737,7 +5737,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
         <v>850.213983755162</v>
@@ -5755,25 +5755,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972663</v>
+        <v>618.2595390972662</v>
       </c>
       <c r="L20" t="n">
-        <v>1482.778354750621</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M20" t="n">
-        <v>2461.32865758045</v>
+        <v>2047.844055175503</v>
       </c>
       <c r="N20" t="n">
-        <v>3441.080929807096</v>
+        <v>3027.59632740215</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750058</v>
+        <v>3907.560977731604</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107236</v>
+        <v>4302.335344088782</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R20" t="n">
         <v>4778.05172241972</v>
@@ -5788,16 +5788,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W20" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="21">
@@ -5807,37 +5807,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089894</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5873,10 +5873,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5910,10 +5910,10 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J22" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927024</v>
@@ -5925,22 +5925,22 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.65758193153</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T22" t="n">
-        <v>1542.890966501056</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U22" t="n">
         <v>1270.093287563029</v>
@@ -5968,19 +5968,19 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001578</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
@@ -5995,13 +5995,13 @@
         <v>939.1634975427194</v>
       </c>
       <c r="L23" t="n">
-        <v>1390.197710791128</v>
+        <v>1453.840519464783</v>
       </c>
       <c r="M23" t="n">
-        <v>1923.729615463053</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N23" t="n">
-        <v>2602.177459903276</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O23" t="n">
         <v>3482.142110232731</v>
@@ -6022,19 +6022,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C24" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390116</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193585</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L24" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M24" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V24" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W24" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6183,16 +6183,16 @@
         <v>1163.957642384228</v>
       </c>
       <c r="V25" t="n">
-        <v>1015.408799357142</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W25" t="n">
-        <v>725.9916293201816</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X25" t="n">
-        <v>498.0020784221642</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y25" t="n">
-        <v>277.2094992786341</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690177</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749766</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
         <v>1646.988141143015</v>
@@ -6214,64 +6214,64 @@
         <v>1261.199888544771</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551633</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001598</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074199</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972664</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L26" t="n">
-        <v>1482.778354750621</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M26" t="n">
-        <v>2461.32865758045</v>
+        <v>2782.232616025903</v>
       </c>
       <c r="N26" t="n">
-        <v>3441.080929807096</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750059</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107238</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.03465586292</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604876</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261305</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991191</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730111</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754299</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6296,31 +6296,31 @@
         <v>341.4333205763703</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
         <v>2436.460902902952</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>244.1098774754799</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6420,16 +6420,16 @@
         <v>1163.957642384228</v>
       </c>
       <c r="V28" t="n">
-        <v>1163.957642384228</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W28" t="n">
-        <v>874.540472347267</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X28" t="n">
-        <v>646.5509214492497</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y28" t="n">
-        <v>425.7583423057196</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
@@ -6469,13 +6469,13 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1237.706702364128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>2216.257005193957</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N29" t="n">
-        <v>3196.009277420604</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O29" t="n">
         <v>4075.973927750058</v>
@@ -6496,19 +6496,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G30" t="n">
         <v>205.0702204089889</v>
@@ -6542,10 +6542,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L30" t="n">
         <v>794.2006632320242</v>
@@ -6560,22 +6560,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T30" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6584,10 +6584,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>709.4168978689405</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C31" t="n">
-        <v>540.4807149410336</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D31" t="n">
-        <v>390.3640755286979</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
         <v>95.56103444839442</v>
@@ -6645,28 +6645,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>1956.343466104704</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U31" t="n">
-        <v>1883.949150983575</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V31" t="n">
-        <v>1629.264662777688</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W31" t="n">
-        <v>1339.847492740728</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X31" t="n">
-        <v>1111.85794184271</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y31" t="n">
-        <v>891.0653626991802</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F32" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
         <v>435.1415336001585</v>
@@ -6697,55 +6697,55 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L32" t="n">
-        <v>1521.86673817257</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M32" t="n">
-        <v>2055.398642844494</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N32" t="n">
-        <v>2602.177459903276</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="33">
@@ -6755,43 +6755,43 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G33" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M33" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O33" t="n">
         <v>2125.96131142685</v>
@@ -6800,7 +6800,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R33" t="n">
         <v>2593.958107142068</v>
@@ -6809,16 +6809,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V33" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W33" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X33" t="n">
         <v>1346.568408282342</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>95.56103444839441</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="C34" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D34" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E34" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
         <v>140.68366689533</v>
@@ -6882,28 +6882,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S34" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T34" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U34" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V34" t="n">
-        <v>999.1036114208126</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W34" t="n">
-        <v>709.6864413838521</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X34" t="n">
-        <v>481.6968904858347</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="Y34" t="n">
-        <v>260.9043113423046</v>
+        <v>432.2000540015823</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690177</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
         <v>2005.253839749765</v>
@@ -6925,40 +6925,40 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>284.44016540742</v>
       </c>
       <c r="K35" t="n">
-        <v>618.2595390972663</v>
+        <v>618.2595390972665</v>
       </c>
       <c r="L35" t="n">
         <v>1482.778354750621</v>
       </c>
       <c r="M35" t="n">
-        <v>2016.310259422546</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N35" t="n">
-        <v>2996.062531649192</v>
+        <v>3441.080929807097</v>
       </c>
       <c r="O35" t="n">
-        <v>3876.027181978647</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P35" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
@@ -6992,43 +6992,43 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320238</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O36" t="n">
         <v>2125.96131142685</v>
@@ -7037,7 +7037,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R36" t="n">
         <v>2593.958107142068</v>
@@ -7046,7 +7046,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U36" t="n">
         <v>2043.809373447819</v>
@@ -7055,7 +7055,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W36" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X36" t="n">
         <v>1346.568408282342</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>709.4168978689405</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="C37" t="n">
-        <v>540.4807149410336</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="D37" t="n">
-        <v>390.3640755286979</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="E37" t="n">
-        <v>242.4509819463048</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F37" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I37" t="n">
         <v>95.56103444839442</v>
@@ -7098,16 +7098,16 @@
         <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L37" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M37" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N37" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O37" t="n">
         <v>1646.12566951853</v>
@@ -7122,25 +7122,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1956.343466104704</v>
+        <v>1788.793390196224</v>
       </c>
       <c r="T37" t="n">
-        <v>1956.343466104704</v>
+        <v>1788.793390196224</v>
       </c>
       <c r="U37" t="n">
-        <v>1883.949150983575</v>
+        <v>1499.690523321867</v>
       </c>
       <c r="V37" t="n">
-        <v>1629.264662777688</v>
+        <v>1245.00603511598</v>
       </c>
       <c r="W37" t="n">
-        <v>1339.847492740728</v>
+        <v>955.5888650790198</v>
       </c>
       <c r="X37" t="n">
-        <v>1111.85794184271</v>
+        <v>727.5993141810025</v>
       </c>
       <c r="Y37" t="n">
-        <v>891.0653626991802</v>
+        <v>506.8067350374723</v>
       </c>
     </row>
     <row r="38">
@@ -7165,16 +7165,16 @@
         <v>850.2139837551624</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277729</v>
+        <v>451.845814427773</v>
       </c>
       <c r="K38" t="n">
         <v>1106.569146563073</v>
@@ -7229,40 +7229,40 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D39" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F39" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L39" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320246</v>
       </c>
       <c r="M39" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N39" t="n">
         <v>1715.000032008795</v>
@@ -7286,7 +7286,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>590.1253288168953</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C40" t="n">
-        <v>421.1891458889884</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D40" t="n">
-        <v>271.0725064766526</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E40" t="n">
-        <v>123.1594128942595</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F40" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G40" t="n">
         <v>95.56103444839442</v>
@@ -7335,16 +7335,16 @@
         <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L40" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M40" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N40" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O40" t="n">
         <v>1646.12566951853</v>
@@ -7359,25 +7359,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>1764.65758193153</v>
+        <v>1764.657581931531</v>
       </c>
       <c r="T40" t="n">
-        <v>1764.65758193153</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U40" t="n">
-        <v>1764.65758193153</v>
+        <v>1253.7880996267</v>
       </c>
       <c r="V40" t="n">
-        <v>1509.973093725643</v>
+        <v>999.1036114208131</v>
       </c>
       <c r="W40" t="n">
-        <v>1220.555923688682</v>
+        <v>709.6864413838525</v>
       </c>
       <c r="X40" t="n">
-        <v>992.5663727906651</v>
+        <v>481.6968904858352</v>
       </c>
       <c r="Y40" t="n">
-        <v>771.773793647135</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551617</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001593</v>
       </c>
       <c r="H41" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
         <v>451.8458144277729</v>
@@ -7426,37 +7426,37 @@
         <v>2637.914081542188</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="42">
@@ -7466,64 +7466,64 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161926</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G42" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O42" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q42" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S42" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T42" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7532,10 +7532,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="43">
@@ -7560,13 +7560,13 @@
         <v>263.2638710736754</v>
       </c>
       <c r="G43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
@@ -7593,19 +7593,19 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1674.827124689058</v>
+        <v>1948.66560649314</v>
       </c>
       <c r="T43" t="n">
-        <v>1453.060509258584</v>
+        <v>1726.898991062666</v>
       </c>
       <c r="U43" t="n">
-        <v>1163.957642384228</v>
+        <v>1437.79612418831</v>
       </c>
       <c r="V43" t="n">
-        <v>909.2731541783409</v>
+        <v>1183.111635982423</v>
       </c>
       <c r="W43" t="n">
         <v>893.6944659454626</v>
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
         <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L44" t="n">
-        <v>1898.858917622688</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M44" t="n">
-        <v>2432.390822294613</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N44" t="n">
-        <v>2979.169639353395</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C45" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
         <v>189.238303939012</v>
       </c>
       <c r="K45" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L45" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V45" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W45" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J46" t="n">
         <v>140.68366689533</v>
@@ -7833,25 +7833,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1780.96276986786</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T46" t="n">
-        <v>1559.196154437386</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U46" t="n">
-        <v>1270.093287563029</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V46" t="n">
-        <v>1015.408799357142</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W46" t="n">
-        <v>725.9916293201816</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X46" t="n">
-        <v>498.0020784221642</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y46" t="n">
-        <v>277.2094992786341</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8236,7 +8236,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8303,7 +8303,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8695,16 +8695,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>344.7025836476838</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8935,16 +8935,16 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>216.9877583263337</v>
       </c>
       <c r="O14" t="n">
-        <v>344.7025836476844</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9169,7 +9169,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9178,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9406,7 +9406,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9415,16 +9415,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>133.2530576400246</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>104.397671054748</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9643,16 +9643,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>64.28566532692452</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>132.9990175570116</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9877,7 +9877,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9886,10 +9886,10 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>246.454569480845</v>
       </c>
       <c r="O26" t="n">
-        <v>133.2530576400264</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10117,7 +10117,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>170.1140909277306</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10126,7 +10126,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10351,28 +10351,28 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>132.9990175570114</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10594,22 +10594,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400235</v>
       </c>
       <c r="P35" t="n">
-        <v>136.2499899971296</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10837,7 +10837,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>344.7025836476838</v>
+        <v>344.7025836476831</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -11074,7 +11074,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>344.7025836476829</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11299,16 +11299,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>219.3344627260153</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23436,7 +23436,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>16.14213605696685</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23661,7 +23661,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23673,7 +23673,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>71.67627119164608</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
@@ -23940,7 +23940,7 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
-        <v>76.82733429106295</v>
+        <v>16.14213605696685</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24147,7 +24147,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>16.14213605696685</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>16.14213605696636</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>105.0742887270132</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>105.0742887270134</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="C28" t="n">
-        <v>20.18346650181329</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24840,16 +24840,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
@@ -24885,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>214.5414662356956</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>105.0742887270133</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>16.14213605696625</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>39.93028455063717</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>23.89445018204623</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>214.5414662356956</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25551,19 +25551,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>118.0986533615248</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>182.167944315994</v>
       </c>
     </row>
     <row r="41">
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>182.1679443159941</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>271.1000969860415</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26073,7 +26073,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>854698.4465300766</v>
+        <v>854698.4465300767</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>854698.4465300767</v>
+        <v>854698.4465300766</v>
       </c>
     </row>
     <row r="11">
@@ -26316,46 +26316,46 @@
         <v>574729.2389049989</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049988</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049988</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="E2" t="n">
         <v>555914.5016417765</v>
       </c>
       <c r="F2" t="n">
-        <v>555914.5016417766</v>
+        <v>555914.5016417765</v>
       </c>
       <c r="G2" t="n">
-        <v>555914.5016417768</v>
+        <v>555914.5016417765</v>
       </c>
       <c r="H2" t="n">
-        <v>555914.5016417765</v>
+        <v>555914.5016417763</v>
       </c>
       <c r="I2" t="n">
         <v>555914.5016417765</v>
       </c>
       <c r="J2" t="n">
-        <v>555914.5016417766</v>
+        <v>555914.5016417768</v>
       </c>
       <c r="K2" t="n">
-        <v>555914.5016417763</v>
+        <v>555914.5016417765</v>
       </c>
       <c r="L2" t="n">
         <v>555914.5016417766</v>
       </c>
       <c r="M2" t="n">
-        <v>555914.5016417763</v>
+        <v>555914.5016417768</v>
       </c>
       <c r="N2" t="n">
+        <v>555914.5016417769</v>
+      </c>
+      <c r="O2" t="n">
         <v>555914.5016417764</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>555914.5016417765</v>
-      </c>
-      <c r="P2" t="n">
-        <v>555914.5016417763</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934065</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925931</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389448</v>
+        <v>129642.3148389449</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26429,34 +26429,34 @@
         <v>21619.60799709187</v>
       </c>
       <c r="F4" t="n">
+        <v>21619.60799709187</v>
+      </c>
+      <c r="G4" t="n">
+        <v>21619.60799709189</v>
+      </c>
+      <c r="H4" t="n">
         <v>21619.60799709188</v>
-      </c>
-      <c r="G4" t="n">
-        <v>21619.60799709187</v>
-      </c>
-      <c r="H4" t="n">
-        <v>21619.60799709187</v>
       </c>
       <c r="I4" t="n">
         <v>21619.60799709187</v>
       </c>
       <c r="J4" t="n">
-        <v>21619.60799709183</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="K4" t="n">
         <v>21619.60799709188</v>
       </c>
       <c r="L4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="M4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709185</v>
       </c>
       <c r="N4" t="n">
         <v>21619.60799709187</v>
       </c>
       <c r="O4" t="n">
-        <v>21619.60799709186</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="P4" t="n">
         <v>21619.60799709187</v>
@@ -26478,10 +26478,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
         <v>96383.51825371364</v>
@@ -26493,13 +26493,13 @@
         <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
         <v>96383.51825371366</v>
@@ -26508,10 +26508,10 @@
         <v>96383.51825371366</v>
       </c>
       <c r="O5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="P5" t="n">
         <v>96383.51825371364</v>
-      </c>
-      <c r="P5" t="n">
-        <v>96383.51825371366</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-290304.3147653848</v>
       </c>
       <c r="C6" t="n">
-        <v>299663.5644491595</v>
+        <v>299663.5644491594</v>
       </c>
       <c r="D6" t="n">
-        <v>299663.5644491595</v>
+        <v>299663.5644491594</v>
       </c>
       <c r="E6" t="n">
-        <v>-290137.9935046934</v>
+        <v>-289533.2340926615</v>
       </c>
       <c r="F6" t="n">
-        <v>437239.4204887133</v>
+        <v>437844.1799007452</v>
       </c>
       <c r="G6" t="n">
-        <v>437239.4204887134</v>
+        <v>437844.1799007455</v>
       </c>
       <c r="H6" t="n">
-        <v>437239.420488713</v>
+        <v>437844.179900745</v>
       </c>
       <c r="I6" t="n">
-        <v>437239.4204887131</v>
+        <v>437844.1799007452</v>
       </c>
       <c r="J6" t="n">
-        <v>260816.2012961202</v>
+        <v>261420.9607081524</v>
       </c>
       <c r="K6" t="n">
-        <v>437239.4204887128</v>
+        <v>437844.1799007452</v>
       </c>
       <c r="L6" t="n">
-        <v>437239.4204887133</v>
+        <v>437844.1799007453</v>
       </c>
       <c r="M6" t="n">
-        <v>307597.105649768</v>
+        <v>308201.8650618005</v>
       </c>
       <c r="N6" t="n">
-        <v>437239.420488713</v>
+        <v>437844.1799007456</v>
       </c>
       <c r="O6" t="n">
-        <v>437239.4204887131</v>
+        <v>437844.1799007452</v>
       </c>
       <c r="P6" t="n">
-        <v>437239.4204887128</v>
+        <v>437844.1799007453</v>
       </c>
     </row>
   </sheetData>
@@ -26770,10 +26770,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="M3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="N3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="O3" t="n">
         <v>1089.776700593298</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762114</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,11 +26977,11 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
@@ -26992,7 +26992,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545561</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>111.3076844110284</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>251.4508157088899</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27539,16 +27539,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>107.5829646831825</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27596,7 +27596,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>219.6462558252425</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27624,19 +27624,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>18.40509327101753</v>
       </c>
       <c r="S5" t="n">
-        <v>112.6591484869789</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>35.43509572113039</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,28 +27818,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>125.6900249618415</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27861,10 +27861,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>48.19472341080751</v>
       </c>
       <c r="F8" t="n">
-        <v>218.8910649275541</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27915,7 +27915,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28022,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>19.88405377167442</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>116.0611043592034</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -29292,7 +29292,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>-8.360776804491007e-13</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31837,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31925,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31943,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837931</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32332,7 +32332,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987486</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353163</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33274,7 +33274,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
         <v>557.708647897025</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H35" t="n">
         <v>44.86703772844668</v>
@@ -33657,40 +33657,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T35" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U35" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H36" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M36" t="n">
         <v>593.9283018233476</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q36" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33809,43 +33809,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K37" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L37" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P37" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q37" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U37" t="n">
         <v>0.1071911508780295</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H38" t="n">
         <v>44.86703772844668</v>
@@ -33894,40 +33894,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T38" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U38" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H39" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987476</v>
       </c>
       <c r="R39" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34046,43 +34046,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K40" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L40" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P40" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q40" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U40" t="n">
         <v>0.1071911508780295</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34956,7 +34956,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35023,7 +35023,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35412,25 +35412,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>800.2926980400157</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
         <v>125.3296184152072</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35582,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,25 +35649,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>769.2895937392452</v>
       </c>
       <c r="O14" t="n">
-        <v>852.7555845359034</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
         <v>125.3296184152072</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004598</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35819,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35889,7 +35889,7 @@
         <v>661.3366991265651</v>
       </c>
       <c r="L17" t="n">
-        <v>800.2926980400157</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
         <v>538.9211158302265</v>
@@ -35898,7 +35898,7 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P17" t="n">
         <v>720.5606943908542</v>
@@ -35980,7 +35980,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127271</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O20" t="n">
-        <v>641.3060585282437</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>355.1919758584674</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609573</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36293,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36363,16 +36363,16 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>519.8757797192567</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
-        <v>685.3008529699231</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
         <v>720.5606943908545</v>
@@ -36597,7 +36597,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
         <v>873.2513289427826</v>
@@ -36606,10 +36606,10 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>798.7564048937564</v>
       </c>
       <c r="O26" t="n">
-        <v>641.3060585282456</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193719</v>
@@ -36837,7 +36837,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>625.7042053200628</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
         <v>988.4346493230593</v>
@@ -36846,7 +36846,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193719</v>
@@ -36922,7 +36922,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
         <v>415.1124034525806</v>
@@ -37071,28 +37071,28 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>588.5891319493436</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427827</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230594</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248957</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282428</v>
       </c>
       <c r="P35" t="n">
-        <v>535.0119762165015</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M36" t="n">
         <v>451.7942679013293</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q36" t="n">
         <v>159.2338966127272</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K37" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M37" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N37" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O37" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N38" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>852.7555845359029</v>
+        <v>852.7555845359025</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K40" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M40" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N40" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O40" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37794,7 +37794,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>852.755584535902</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P41" t="n">
         <v>720.5606943908545</v>
@@ -38019,16 +38019,16 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>800.2926980400159</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>771.6362981389268</v>
       </c>
       <c r="O44" t="n">
         <v>508.0530008882191</v>
